--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>UserName</t>
   </si>
@@ -55,6 +55,27 @@
     <t>2014 Sales Touches Round 1</t>
   </si>
   <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>//span[text()='Bmw Affinitiv Tire']</t>
+  </si>
+  <si>
+    <t>//span[text()='BMW Airbag Recall']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon Sales Touch']</t>
+  </si>
+  <si>
+    <t>PageView</t>
+  </si>
+  <si>
+    <t>ReportTitle</t>
+  </si>
+  <si>
+    <t>//*[@id='first_report']/tbody/tr[last()]/td[5]/b</t>
+  </si>
+  <si>
     <t>BMW T2</t>
   </si>
   <si>
@@ -94,13 +115,70 @@
     <t>Intercept National LMA</t>
   </si>
   <si>
-    <t>03/10/2018</t>
-  </si>
-  <si>
     <t>Affinitiv</t>
   </si>
   <si>
     <t>BMW Affinitiv Tire</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon BMW T2']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon Business Elite Standard, Non-Standard Report']</t>
+  </si>
+  <si>
+    <t>//*[@id='first_report']/tbody/tr[last()]/td[3]/b</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon Car Care Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='EVO OLA Combined Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon OLA Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon CSSR Lease Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Cherokee Report']</t>
+  </si>
+  <si>
+    <t>//tbody/tr[last()]/td[3]/b</t>
+  </si>
+  <si>
+    <t>//span[text()='Ford Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Ford Truck Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Honda Lcc']</t>
+  </si>
+  <si>
+    <t>//tbody/tr[last()]/td[5]/b</t>
+  </si>
+  <si>
+    <t>//span[text()='Honda SPS']</t>
+  </si>
+  <si>
+    <t>//span[text()='Hyundai EM']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon National LMA Report']</t>
+  </si>
+  <si>
+    <t>//tbody/tr[last()]/td[4]/b</t>
+  </si>
+  <si>
+    <t>ExecutionSatus</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -583,7 +661,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -616,152 +694,308 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
